--- a/inputs/reliable_stage1_mgs.xlsx
+++ b/inputs/reliable_stage1_mgs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="504">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -459,12 +459,18 @@
     <t xml:space="preserve">pcoupling_oversize_factor</t>
   </si>
   <si>
-    <t xml:space="preserve">price_fuel</t>
+    <t xml:space="preserve">fuel_price</t>
   </si>
   <si>
     <t xml:space="preserve">/l</t>
   </si>
   <si>
+    <t xml:space="preserve">fuel_price_change_annual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.a.</t>
+  </si>
+  <si>
     <t xml:space="preserve">project_cost_investment</t>
   </si>
   <si>
@@ -1500,6 +1506,9 @@
     <t xml:space="preserve">capacity_genset_kW</t>
   </si>
   <si>
+    <t xml:space="preserve">peak_demand</t>
+  </si>
+  <si>
     <t xml:space="preserve">genset_with_minimal_loading</t>
   </si>
   <si>
@@ -1510,9 +1519,6 @@
   </si>
   <si>
     <t xml:space="preserve">capacity_pcc_consumption_kW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peak_demand</t>
   </si>
   <si>
     <t xml:space="preserve">capacity_pcc_feedin_kW</t>
@@ -1927,7 +1933,7 @@
   <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="1" sqref="A47:A48 A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2136,8 +2142,8 @@
   </sheetPr>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M21" activeCellId="0" sqref="M21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="A47:A48 C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2296,7 +2302,7 @@
         <v>44</v>
       </c>
       <c r="C17" s="18" t="n">
-        <v>365</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2579,10 +2585,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47:A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2855,7 +2861,7 @@
         <v>118</v>
       </c>
       <c r="B25" s="18" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>98</v>
@@ -3089,7 +3095,7 @@
         <v>143</v>
       </c>
       <c r="B46" s="18" t="n">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>98</v>
@@ -3103,7 +3109,7 @@
         <v>144</v>
       </c>
       <c r="B47" s="18" t="n">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>145</v>
@@ -3114,43 +3120,43 @@
         <v>146</v>
       </c>
       <c r="B48" s="18" t="n">
-        <v>20000</v>
+        <v>0.05</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B49" s="18" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B50" s="18" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B51" s="18" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3158,7 +3164,7 @@
         <v>151</v>
       </c>
       <c r="B52" s="18" t="n">
-        <v>1250</v>
+        <v>0.5</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>152</v>
@@ -3169,7 +3175,7 @@
         <v>153</v>
       </c>
       <c r="B53" s="18" t="n">
-        <v>25</v>
+        <v>1250</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>154</v>
@@ -3180,106 +3186,106 @@
         <v>155</v>
       </c>
       <c r="B54" s="18" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B55" s="18" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B56" s="18" t="n">
-        <v>0.5</v>
+        <v>25</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B57" s="18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B58" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B59" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="B60" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>91</v>
+        <v>162</v>
+      </c>
+      <c r="B60" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B61" s="10" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="B62" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>91</v>
+        <v>164</v>
+      </c>
+      <c r="B62" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B63" s="18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>91</v>
@@ -3287,35 +3293,35 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B64" s="18" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B65" s="18" t="n">
         <v>0.4</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B66" s="18" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3326,29 +3332,29 @@
         <v>1</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B68" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" s="15" t="s">
         <v>170</v>
-      </c>
-      <c r="B68" s="18" t="n">
-        <v>250</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B69" s="18" t="n">
-        <v>6.75</v>
+        <v>250</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3356,18 +3362,18 @@
         <v>173</v>
       </c>
       <c r="B70" s="18" t="n">
-        <v>5</v>
+        <v>6.75</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B71" s="18" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>105</v>
@@ -3375,21 +3381,21 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B72" s="18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="B73" s="28" t="n">
-        <v>0.5</v>
+        <v>177</v>
+      </c>
+      <c r="B73" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>91</v>
@@ -3397,10 +3403,10 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="B74" s="18" t="n">
-        <v>0.97</v>
+        <v>178</v>
+      </c>
+      <c r="B74" s="28" t="n">
+        <v>0.5</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>91</v>
@@ -3408,7 +3414,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B75" s="18" t="n">
         <v>0.97</v>
@@ -3419,10 +3425,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B76" s="18" t="n">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>91</v>
@@ -3430,65 +3436,65 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B77" s="18" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B78" s="18" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B79" s="18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="B80" s="18" t="s">
         <v>184</v>
       </c>
+      <c r="B80" s="18" t="n">
+        <v>13.5</v>
+      </c>
       <c r="C80" s="15" t="s">
-        <v>185</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B81" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="B81" s="18" t="n">
-        <v>1</v>
-      </c>
       <c r="C81" s="15" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B82" s="18" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>91</v>
@@ -3496,10 +3502,10 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B83" s="18" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>91</v>
@@ -3507,10 +3513,10 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B84" s="18" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>91</v>
@@ -3518,10 +3524,10 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B85" s="18" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>91</v>
@@ -3529,7 +3535,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B86" s="18" t="n">
         <v>0</v>
@@ -3540,7 +3546,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B87" s="18" t="n">
         <v>0</v>
@@ -3551,56 +3557,67 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B88" s="18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B89" s="18" t="n">
-        <v>1100</v>
+        <v>0.5</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B90" s="18" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B91" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B92" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B93" s="18" t="n">
         <v>20</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="C93" s="15" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3627,7 +3644,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="A47:A48 D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3642,7 +3659,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="15"/>
@@ -3658,10 +3675,10 @@
     </row>
     <row r="3" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -3687,7 +3704,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C5" s="32"/>
       <c r="D5" s="32"/>
@@ -3697,10 +3714,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="31" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -3710,10 +3727,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="31" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -3723,10 +3740,10 @@
     </row>
     <row r="8" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -3745,13 +3762,13 @@
         <v>85</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3781,8 +3798,8 @@
   </sheetPr>
   <dimension ref="A1:AMI123"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I15" activeCellId="1" sqref="A47:A48 I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3803,7 +3820,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
@@ -5855,10 +5872,10 @@
     </row>
     <row r="3" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -6884,10 +6901,10 @@
     </row>
     <row r="4" customFormat="false" ht="35.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -7913,10 +7930,10 @@
     </row>
     <row r="5" customFormat="false" ht="35.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -8942,10 +8959,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -9971,10 +9988,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -11000,10 +11017,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -12029,10 +12046,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -13058,10 +13075,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -14087,10 +14104,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -15116,10 +15133,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -17168,33 +17185,33 @@
       <c r="AMH13" s="0"/>
       <c r="AMI13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="I14" s="0" t="s">
         <v>229</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>227</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>100</v>
@@ -17206,33 +17223,33 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>894800</v>
@@ -17246,31 +17263,31 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="H16" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="I16" s="0" t="s">
         <v>239</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>237</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>320400</v>
@@ -17282,33 +17299,33 @@
         <v>5.40701306857262</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>801600</v>
@@ -17320,33 +17337,33 @@
         <v>5.03816256466999</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>320000</v>
@@ -17360,31 +17377,31 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>85200</v>
@@ -17398,31 +17415,31 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>258800</v>
@@ -17436,31 +17453,31 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>320800</v>
@@ -17474,31 +17491,31 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>208800</v>
@@ -17512,31 +17529,31 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>164000</v>
@@ -17550,31 +17567,31 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>656000</v>
@@ -17588,31 +17605,31 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>697600</v>
@@ -17626,31 +17643,31 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>825200</v>
@@ -17664,31 +17681,31 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>229600</v>
@@ -17702,31 +17719,31 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>434400</v>
@@ -17740,31 +17757,31 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>459600</v>
@@ -17778,31 +17795,31 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>277200</v>
@@ -17816,31 +17833,31 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>814400</v>
@@ -17854,31 +17871,31 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>394800</v>
@@ -17892,31 +17909,31 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>276000</v>
@@ -17930,31 +17947,31 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>296800</v>
@@ -17968,31 +17985,31 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>364000</v>
@@ -18006,31 +18023,31 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>296800</v>
@@ -18044,31 +18061,31 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>962400</v>
@@ -18082,31 +18099,31 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>125200</v>
@@ -18120,31 +18137,31 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>518800</v>
@@ -18158,31 +18175,31 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>1089200</v>
@@ -18196,31 +18213,31 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>185600</v>
@@ -18234,31 +18251,31 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>132800</v>
@@ -18272,31 +18289,31 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>432800</v>
@@ -18310,31 +18327,31 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>211600</v>
@@ -18348,31 +18365,31 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>212000</v>
@@ -18386,31 +18403,31 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>956800</v>
@@ -18424,31 +18441,31 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>419600</v>
@@ -18462,31 +18479,31 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>414400</v>
@@ -18500,31 +18517,31 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>684000</v>
@@ -18538,31 +18555,31 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>405600</v>
@@ -18576,31 +18593,31 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J51" s="0" t="n">
         <v>248000</v>
@@ -18614,31 +18631,31 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J52" s="0" t="n">
         <v>389600</v>
@@ -18652,31 +18669,31 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J53" s="0" t="n">
         <v>331600</v>
@@ -18690,31 +18707,31 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J54" s="0" t="n">
         <v>593600</v>
@@ -18728,31 +18745,31 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J55" s="0" t="n">
         <v>339600</v>
@@ -18766,31 +18783,31 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J56" s="0" t="n">
         <v>134800</v>
@@ -18804,31 +18821,31 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J57" s="0" t="n">
         <v>162800</v>
@@ -18842,31 +18859,31 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J58" s="0" t="n">
         <v>177200</v>
@@ -18880,31 +18897,31 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J59" s="0" t="n">
         <v>67600</v>
@@ -18918,31 +18935,31 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J60" s="0" t="n">
         <v>263200</v>
@@ -18956,31 +18973,31 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J61" s="0" t="n">
         <v>166400</v>
@@ -18994,31 +19011,31 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J62" s="0" t="n">
         <v>222000</v>
@@ -19032,31 +19049,31 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J63" s="0" t="n">
         <v>417200</v>
@@ -19070,31 +19087,31 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J64" s="0" t="n">
         <v>449200</v>
@@ -19108,31 +19125,31 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J65" s="0" t="n">
         <v>561600</v>
@@ -19146,31 +19163,31 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J66" s="0" t="n">
         <v>306800</v>
@@ -19184,31 +19201,31 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J67" s="0" t="n">
         <v>210400</v>
@@ -19222,31 +19239,31 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J68" s="0" t="n">
         <v>243600</v>
@@ -19260,31 +19277,31 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J69" s="0" t="n">
         <v>223200</v>
@@ -19298,31 +19315,31 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J70" s="0" t="n">
         <v>129600</v>
@@ -19336,31 +19353,31 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J71" s="0" t="n">
         <v>183200</v>
@@ -19374,31 +19391,31 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J72" s="0" t="n">
         <v>242000</v>
@@ -19412,31 +19429,31 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J73" s="0" t="n">
         <v>531600</v>
@@ -19450,31 +19467,31 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J74" s="0" t="n">
         <v>522000</v>
@@ -19488,31 +19505,31 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J75" s="0" t="n">
         <v>363200</v>
@@ -19526,31 +19543,31 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J76" s="0" t="n">
         <v>104800</v>
@@ -19564,31 +19581,31 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J77" s="0" t="n">
         <v>237600</v>
@@ -19602,31 +19619,31 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J78" s="0" t="n">
         <v>486800</v>
@@ -19640,31 +19657,31 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J79" s="0" t="n">
         <v>400000</v>
@@ -19678,31 +19695,31 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J80" s="0" t="n">
         <v>334400</v>
@@ -19716,31 +19733,31 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J81" s="0" t="n">
         <v>364800</v>
@@ -19754,31 +19771,31 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J82" s="0" t="n">
         <v>126800</v>
@@ -19792,31 +19809,31 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J83" s="0" t="n">
         <v>468000</v>
@@ -19830,31 +19847,31 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J84" s="0" t="n">
         <v>190800</v>
@@ -19868,31 +19885,31 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J85" s="0" t="n">
         <v>430800</v>
@@ -19906,31 +19923,31 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J86" s="0" t="n">
         <v>998400</v>
@@ -19944,31 +19961,31 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J87" s="0" t="n">
         <v>402000</v>
@@ -19982,31 +19999,31 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J88" s="0" t="n">
         <v>352400</v>
@@ -20020,31 +20037,31 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J89" s="0" t="n">
         <v>675200</v>
@@ -20058,31 +20075,31 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J90" s="0" t="n">
         <v>351200</v>
@@ -20096,31 +20113,31 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J91" s="0" t="n">
         <v>248800</v>
@@ -20134,31 +20151,31 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J92" s="0" t="n">
         <v>207200</v>
@@ -20172,31 +20189,31 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J93" s="0" t="n">
         <v>162800</v>
@@ -20210,31 +20227,31 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J94" s="0" t="n">
         <v>92000</v>
@@ -20248,31 +20265,31 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J95" s="0" t="n">
         <v>120400</v>
@@ -20286,31 +20303,31 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J96" s="0" t="n">
         <v>179200</v>
@@ -20324,31 +20341,31 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J97" s="0" t="n">
         <v>111600</v>
@@ -20362,31 +20379,31 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J98" s="0" t="n">
         <v>328800</v>
@@ -20400,31 +20417,31 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J99" s="0" t="n">
         <v>366400</v>
@@ -20438,31 +20455,31 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J100" s="0" t="n">
         <v>364000</v>
@@ -20476,31 +20493,31 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J101" s="0" t="n">
         <v>177600</v>
@@ -20514,31 +20531,31 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J102" s="0" t="n">
         <v>184800</v>
@@ -20552,31 +20569,31 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J103" s="0" t="n">
         <v>299600</v>
@@ -20590,31 +20607,31 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J104" s="0" t="n">
         <v>288800</v>
@@ -20628,31 +20645,31 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J105" s="0" t="n">
         <v>388800</v>
@@ -20666,31 +20683,31 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J106" s="0" t="n">
         <v>345200</v>
@@ -20704,31 +20721,31 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J107" s="0" t="n">
         <v>269200</v>
@@ -20742,31 +20759,31 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J108" s="0" t="n">
         <v>174800</v>
@@ -20780,31 +20797,31 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J109" s="0" t="n">
         <v>276000</v>
@@ -20818,31 +20835,31 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J110" s="0" t="n">
         <v>281200</v>
@@ -20856,31 +20873,31 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J111" s="0" t="n">
         <v>122800</v>
@@ -20894,31 +20911,31 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J112" s="0" t="n">
         <v>174800</v>
@@ -20932,31 +20949,31 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J113" s="0" t="n">
         <v>300000</v>
@@ -20970,31 +20987,31 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J114" s="0" t="n">
         <v>204800</v>
@@ -21008,31 +21025,31 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J115" s="0" t="n">
         <v>145600</v>
@@ -21046,31 +21063,31 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J116" s="0" t="n">
         <v>92400</v>
@@ -21084,31 +21101,31 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J117" s="0" t="n">
         <v>274400</v>
@@ -21122,31 +21139,31 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J118" s="0" t="n">
         <v>226000</v>
@@ -21160,31 +21177,31 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J119" s="0" t="n">
         <v>352800</v>
@@ -21198,31 +21215,31 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J120" s="0" t="n">
         <v>446400</v>
@@ -21236,31 +21253,31 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J121" s="0" t="n">
         <v>308000</v>
@@ -21274,31 +21291,31 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J122" s="0" t="n">
         <v>69200</v>
@@ -21312,31 +21329,31 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J123" s="0" t="n">
         <v>1887200</v>
@@ -21379,7 +21396,7 @@
   <dimension ref="A1:AMG36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
+      <selection pane="topLeft" activeCell="C28" activeCellId="1" sqref="A47:A48 C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23440,10 +23457,10 @@
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -24467,10 +24484,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="35" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -25494,10 +25511,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="35" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -26521,10 +26538,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="35" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
@@ -27548,10 +27565,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="35" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
@@ -28575,10 +28592,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="B8" s="35" t="s">
         <v>463</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>461</v>
       </c>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
@@ -29602,10 +29619,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="35" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
@@ -30629,10 +30646,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="35" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
@@ -31659,7 +31676,7 @@
         <v>43</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
@@ -32683,10 +32700,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="35" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
@@ -33710,10 +33727,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="35" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
@@ -34737,10 +34754,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="35" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
@@ -36786,28 +36803,28 @@
     </row>
     <row r="16" customFormat="false" ht="96.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="37" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AMD16" s="0"/>
       <c r="AME16" s="0"/>
@@ -36816,7 +36833,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B17" s="39" t="s">
         <v>39</v>
@@ -36825,19 +36842,19 @@
         <v>41</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AMD17" s="0"/>
       <c r="AME17" s="0"/>
@@ -36846,7 +36863,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="37" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B18" s="39" t="s">
         <v>39</v>
@@ -36876,28 +36893,28 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="37" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AMD19" s="0"/>
       <c r="AME19" s="0"/>
@@ -36906,28 +36923,28 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="37" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AMD20" s="0"/>
       <c r="AME20" s="0"/>
@@ -36936,28 +36953,28 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="37" t="s">
+        <v>486</v>
+      </c>
+      <c r="B21" s="39" t="s">
         <v>484</v>
       </c>
-      <c r="B21" s="39" t="s">
-        <v>482</v>
-      </c>
       <c r="C21" s="39" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AMD21" s="0"/>
       <c r="AME21" s="0"/>
@@ -36966,7 +36983,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="40" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B22" s="39" t="s">
         <v>39</v>
@@ -36996,7 +37013,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="40" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>39</v>
@@ -37026,28 +37043,28 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="37" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H24" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AMD24" s="0"/>
       <c r="AME24" s="0"/>
@@ -37056,28 +37073,28 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="37" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AMD25" s="0"/>
       <c r="AME25" s="0"/>
@@ -37086,7 +37103,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="40" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B26" s="39" t="s">
         <v>39</v>
@@ -37116,28 +37133,28 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="37" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F27" s="39" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H27" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AMD27" s="0"/>
       <c r="AME27" s="0"/>
@@ -37146,7 +37163,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="40" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B28" s="39" t="s">
         <v>39</v>
@@ -37176,28 +37193,28 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="40" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F29" s="39" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="H29" s="39" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="AMD29" s="0"/>
       <c r="AME29" s="0"/>
@@ -37206,28 +37223,28 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="37" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AMD30" s="0"/>
       <c r="AME30" s="0"/>
@@ -37236,28 +37253,28 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="37" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F31" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H31" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AMD31" s="0"/>
       <c r="AME31" s="0"/>
@@ -37296,28 +37313,28 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="37" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G33" s="39" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="H33" s="39" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AMD33" s="0"/>
       <c r="AME33" s="0"/>
@@ -37326,25 +37343,25 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="37" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B34" s="39" t="s">
         <v>39</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H34" s="39" t="s">
         <v>39</v>
@@ -37356,7 +37373,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B35" s="39" t="s">
         <v>39</v>
@@ -37386,28 +37403,28 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="37" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G36" s="41" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H36" s="41" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AMD36" s="0"/>
       <c r="AME36" s="0"/>

--- a/inputs/reliable_stage1_mgs.xlsx
+++ b/inputs/reliable_stage1_mgs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="505">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -1518,6 +1518,12 @@
     <t xml:space="preserve">2</t>
   </si>
   <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
     <t xml:space="preserve">capacity_pcc_consumption_kW</t>
   </si>
   <si>
@@ -1525,9 +1531,6 @@
   </si>
   <si>
     <t xml:space="preserve">default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">share_hybrid</t>
@@ -1933,7 +1936,7 @@
   <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="1" sqref="A47:A48 A20"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2143,7 +2146,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="A47:A48 C18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2587,8 +2590,8 @@
   </sheetPr>
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47:A48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3644,7 +3647,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="A47:A48 D11"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3799,7 +3802,7 @@
   <dimension ref="A1:AMI123"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="1" sqref="A47:A48 I15"/>
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21395,8 +21398,8 @@
   </sheetPr>
   <dimension ref="A1:AMG36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="1" sqref="A47:A48 C28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O30" activeCellId="0" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37169,7 +37172,7 @@
         <v>39</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D28" s="39" t="s">
         <v>39</v>
@@ -37199,10 +37202,10 @@
         <v>496</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E29" s="39" t="s">
         <v>496</v>
@@ -37223,7 +37226,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="37" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B30" s="39" t="s">
         <v>186</v>
@@ -37253,7 +37256,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="37" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B31" s="39" t="s">
         <v>186</v>
@@ -37316,25 +37319,25 @@
         <v>469</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G33" s="39" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H33" s="39" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AMD33" s="0"/>
       <c r="AME33" s="0"/>
@@ -37349,19 +37352,19 @@
         <v>39</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H34" s="39" t="s">
         <v>39</v>
@@ -37403,28 +37406,28 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="37" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G36" s="41" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H36" s="41" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AMD36" s="0"/>
       <c r="AME36" s="0"/>

--- a/inputs/reliable_stage1_mgs.xlsx
+++ b/inputs/reliable_stage1_mgs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -729,6 +729,9 @@
     <t xml:space="preserve">title_demand_dc</t>
   </si>
   <si>
+    <t xml:space="preserve">maingrid_cost_investment</t>
+  </si>
+  <si>
     <t xml:space="preserve">nesp_3518</t>
   </si>
   <si>
@@ -1518,19 +1521,16 @@
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
+    <t xml:space="preserve">capacity_pcc_consumption_kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capacity_pcc_feedin_kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">capacity_pcc_consumption_kW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">capacity_pcc_feedin_kW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default</t>
   </si>
   <si>
     <t xml:space="preserve">share_hybrid</t>
@@ -1780,16 +1780,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1858,12 +1858,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2145,8 +2145,8 @@
   </sheetPr>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2405,7 +2405,7 @@
       <c r="B30" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="23" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2426,8 +2426,8 @@
         <v>64</v>
       </c>
       <c r="C33" s="20"/>
-      <c r="D33" s="23"/>
-      <c r="G33" s="23"/>
+      <c r="D33" s="24"/>
+      <c r="G33" s="24"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
@@ -2590,15 +2590,15 @@
   </sheetPr>
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="6.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="6.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="4" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="6.08"/>
   </cols>
@@ -2607,14 +2607,14 @@
       <c r="A1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11"/>
-      <c r="B2" s="25"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -2723,7 +2723,7 @@
       <c r="B12" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="25" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
       <c r="B13" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="25" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2798,7 +2798,7 @@
         <v>110</v>
       </c>
       <c r="B19" s="18" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>111</v>
@@ -2924,7 +2924,7 @@
       <c r="B30" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="25" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
       <c r="B31" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="25" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2944,7 +2944,7 @@
         <v>126</v>
       </c>
       <c r="B32" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>127</v>
@@ -2966,7 +2966,7 @@
         <v>129</v>
       </c>
       <c r="B34" s="18" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>130</v>
@@ -3043,7 +3043,7 @@
         <v>138</v>
       </c>
       <c r="B41" s="18" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>109</v>
@@ -3664,14 +3664,14 @@
       <c r="A1" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11"/>
-      <c r="B2" s="25"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -3801,8 +3801,8 @@
   </sheetPr>
   <dimension ref="A1:AMI123"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A110" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5884,8 +5884,8 @@
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
       <c r="F3" s="15"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="10"/>
       <c r="J3" s="15"/>
       <c r="K3" s="0"/>
@@ -6913,8 +6913,8 @@
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="10"/>
       <c r="J4" s="15"/>
       <c r="K4" s="0"/>
@@ -7942,8 +7942,8 @@
       <c r="D5" s="30"/>
       <c r="E5" s="30"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="10"/>
       <c r="J5" s="15"/>
       <c r="K5" s="0"/>
@@ -17188,7 +17188,7 @@
       <c r="AMH13" s="0"/>
       <c r="AMI13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>231</v>
       </c>
@@ -17223,36 +17223,36 @@
         <v>102</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>126</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>894800</v>
@@ -17261,36 +17261,36 @@
         <v>8948</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>5.99046750201859</v>
+        <v>30045.0842229549</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>320400</v>
@@ -17299,36 +17299,36 @@
         <v>3204</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>5.40701306857262</v>
+        <v>35052.5982601141</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>801600</v>
@@ -17337,36 +17337,36 @@
         <v>8016</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>5.03816256466999</v>
+        <v>75530.0033938174</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>320000</v>
@@ -17375,36 +17375,36 @@
         <v>3200</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>4.28034243847004</v>
+        <v>58820.633780921</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>85200</v>
@@ -17413,36 +17413,36 @@
         <v>852</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>9.48281113669666</v>
+        <v>153859.271904942</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>258800</v>
@@ -17451,36 +17451,36 @@
         <v>2588</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>8.86582483925953</v>
+        <v>39719.105518939</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>320800</v>
@@ -17489,36 +17489,36 @@
         <v>3208</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>6.05417804360177</v>
+        <v>64598.0437875391</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>208800</v>
@@ -17527,36 +17527,36 @@
         <v>2088</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>3.60299878584885</v>
+        <v>374661.862995866</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>164000</v>
@@ -17565,36 +17565,36 @@
         <v>1640</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>7.08360626813002</v>
+        <v>15469.5463600077</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>656000</v>
@@ -17603,36 +17603,36 @@
         <v>6560</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>4.70452051795807</v>
+        <v>144395.627289793</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>697600</v>
@@ -17641,36 +17641,36 @@
         <v>6976</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>4.97612861628636</v>
+        <v>6333.14154779789</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>825200</v>
@@ -17679,36 +17679,36 @@
         <v>8252</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>6.21345439755973</v>
+        <v>34701.9553481258</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>229600</v>
@@ -17717,36 +17717,36 @@
         <v>2296</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>2.08735853344896</v>
+        <v>12518.7850928979</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>434400</v>
@@ -17755,36 +17755,36 @@
         <v>4344</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>4.08418103412183</v>
+        <v>24488.147318152</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>459600</v>
@@ -17793,36 +17793,36 @@
         <v>4596</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>1.46869564281228</v>
+        <v>60951.8161642876</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>277200</v>
@@ -17831,36 +17831,36 @@
         <v>2772</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>2.5148897993361</v>
+        <v>2921.04985500952</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>814400</v>
@@ -17869,36 +17869,36 @@
         <v>8144</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>6.07429716199646</v>
+        <v>7107.629408652</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>394800</v>
@@ -17907,36 +17907,36 @@
         <v>3948</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>4.35578913245013</v>
+        <v>68397.9287162178</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>276000</v>
@@ -17945,36 +17945,36 @@
         <v>2760</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>4.950979718293</v>
+        <v>149884.349964551</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>296800</v>
@@ -17983,36 +17983,36 @@
         <v>2968</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>3.20732279075331</v>
+        <v>199705.063473895</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>364000</v>
@@ -18021,36 +18021,36 @@
         <v>3640</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>4.35914231884924</v>
+        <v>84037.2653611235</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>296800</v>
@@ -18059,36 +18059,36 @@
         <v>2968</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>4.85038412631956</v>
+        <v>122502.083337359</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>962400</v>
@@ -18097,36 +18097,36 @@
         <v>9624</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>1.92640558629145</v>
+        <v>130462.715884638</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>125200</v>
@@ -18135,36 +18135,36 @@
         <v>1252</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>4.0221470857382</v>
+        <v>20068.6006832532</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>518800</v>
@@ -18173,36 +18173,36 @@
         <v>5188</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>1.20547051048177</v>
+        <v>126240.621519439</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>1089200</v>
@@ -18211,36 +18211,36 @@
         <v>10892</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>3.11846335117676</v>
+        <v>26340.0383967701</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>185600</v>
@@ -18249,36 +18249,36 @@
         <v>1856</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>1.97335019587906</v>
+        <v>7177.56042083767</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>132800</v>
@@ -18287,36 +18287,36 @@
         <v>1328</v>
       </c>
       <c r="L42" s="0" t="n">
-        <v>3.85113457938335</v>
+        <v>10034.3003416266</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>432800</v>
@@ -18325,36 +18325,36 @@
         <v>4328</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>5.07001783546158</v>
+        <v>17732.7963338342</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>211600</v>
@@ -18363,36 +18363,36 @@
         <v>2116</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>1.37145323723795</v>
+        <v>124668.297362002</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>212000</v>
@@ -18401,36 +18401,36 @@
         <v>2120</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>2.26843059900116</v>
+        <v>40029.7112007212</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>956800</v>
@@ -18439,36 +18439,36 @@
         <v>9568</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>2.76470218607015</v>
+        <v>256144.419835923</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>419600</v>
@@ -18477,36 +18477,36 @@
         <v>4196</v>
       </c>
       <c r="L47" s="0" t="n">
-        <v>3.67676888662938</v>
+        <v>201426.099978097</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>414400</v>
@@ -18515,36 +18515,36 @@
         <v>4144</v>
       </c>
       <c r="L48" s="0" t="n">
-        <v>1.36307027124017</v>
+        <v>131870.856324906</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>684000</v>
@@ -18553,36 +18553,36 @@
         <v>6840</v>
       </c>
       <c r="L49" s="0" t="n">
-        <v>1.33624478004725</v>
+        <v>40571.0995473074</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>405600</v>
@@ -18591,36 +18591,36 @@
         <v>4056</v>
       </c>
       <c r="L50" s="0" t="n">
-        <v>4.58715899398905</v>
+        <v>198871.012029115</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J51" s="0" t="n">
         <v>248000</v>
@@ -18629,36 +18629,36 @@
         <v>2480</v>
       </c>
       <c r="L51" s="0" t="n">
-        <v>1.6883293519543</v>
+        <v>89683.4832098375</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J52" s="0" t="n">
         <v>389600</v>
@@ -18667,36 +18667,36 @@
         <v>3896</v>
       </c>
       <c r="L52" s="0" t="n">
-        <v>0.856739124973831</v>
+        <v>4684.32790646739</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J53" s="0" t="n">
         <v>331600</v>
@@ -18705,36 +18705,36 @@
         <v>3316</v>
       </c>
       <c r="L53" s="0" t="n">
-        <v>2.27010719220072</v>
+        <v>101493.877385838</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J54" s="0" t="n">
         <v>593600</v>
@@ -18743,36 +18743,36 @@
         <v>5936</v>
       </c>
       <c r="L54" s="0" t="n">
-        <v>3.01116138640509</v>
+        <v>30321.5586090403</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J55" s="0" t="n">
         <v>339600</v>
@@ -18781,36 +18781,36 @@
         <v>3396</v>
       </c>
       <c r="L55" s="0" t="n">
-        <v>3.18720367235862</v>
+        <v>101264.312908078</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J56" s="0" t="n">
         <v>134800</v>
@@ -18819,36 +18819,36 @@
         <v>1348</v>
       </c>
       <c r="L56" s="0" t="n">
-        <v>12.2592494751637</v>
+        <v>436023.984592661</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J57" s="0" t="n">
         <v>162800</v>
@@ -18857,36 +18857,36 @@
         <v>1628</v>
       </c>
       <c r="L57" s="0" t="n">
-        <v>5.29132813780316</v>
+        <v>16722.4026411016</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J58" s="0" t="n">
         <v>177200</v>
@@ -18895,36 +18895,36 @@
         <v>1772</v>
       </c>
       <c r="L58" s="0" t="n">
-        <v>10.4032608032537</v>
+        <v>678814.799318086</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J59" s="0" t="n">
         <v>67600</v>
@@ -18933,36 +18933,36 @@
         <v>676</v>
       </c>
       <c r="L59" s="0" t="n">
-        <v>1.53072959119591</v>
+        <v>4009.77774008647</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J60" s="0" t="n">
         <v>263200</v>
@@ -18971,36 +18971,36 @@
         <v>2632</v>
       </c>
       <c r="L60" s="0" t="n">
-        <v>1.314449068453</v>
+        <v>337834.984340141</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J61" s="0" t="n">
         <v>166400</v>
@@ -19009,36 +19009,36 @@
         <v>1664</v>
       </c>
       <c r="L61" s="0" t="n">
-        <v>1.57767420078351</v>
+        <v>64004.4045771289</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J62" s="0" t="n">
         <v>222000</v>
@@ -19047,36 +19047,36 @@
         <v>2220</v>
       </c>
       <c r="L62" s="0" t="n">
-        <v>3.93328764616166</v>
+        <v>139632.062053199</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J63" s="0" t="n">
         <v>417200</v>
@@ -19085,36 +19085,36 @@
         <v>4172</v>
       </c>
       <c r="L63" s="0" t="n">
-        <v>0.982483614940636</v>
+        <v>11061.6217937361</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E64" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J64" s="0" t="n">
         <v>449200</v>
@@ -19123,36 +19123,36 @@
         <v>4492</v>
       </c>
       <c r="L64" s="0" t="n">
-        <v>1.16690886689195</v>
+        <v>327022.427140255</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J65" s="0" t="n">
         <v>561600</v>
@@ -19161,36 +19161,36 @@
         <v>5616</v>
       </c>
       <c r="L65" s="0" t="n">
-        <v>2.26340081940249</v>
+        <v>112040.097695381</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H66" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J66" s="0" t="n">
         <v>306800</v>
@@ -19199,36 +19199,36 @@
         <v>3068</v>
       </c>
       <c r="L66" s="0" t="n">
-        <v>4.1562745417028</v>
+        <v>55601.988781663</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H67" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J67" s="0" t="n">
         <v>210400</v>
@@ -19237,36 +19237,36 @@
         <v>2104</v>
       </c>
       <c r="L67" s="0" t="n">
-        <v>6.03238233200753</v>
+        <v>12541.8019808261</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E68" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J68" s="0" t="n">
         <v>243600</v>
@@ -19275,36 +19275,36 @@
         <v>2436</v>
       </c>
       <c r="L68" s="0" t="n">
-        <v>1.34462774604503</v>
+        <v>370570.639799636</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E69" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H69" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J69" s="0" t="n">
         <v>223200</v>
@@ -19313,36 +19313,36 @@
         <v>2232</v>
       </c>
       <c r="L69" s="0" t="n">
-        <v>8.82558660247015</v>
+        <v>103260.836308803</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E70" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H70" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J70" s="0" t="n">
         <v>129600</v>
@@ -19351,36 +19351,36 @@
         <v>1296</v>
       </c>
       <c r="L70" s="0" t="n">
-        <v>7.01318935374861</v>
+        <v>95317.6950542796</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E71" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J71" s="0" t="n">
         <v>183200</v>
@@ -19389,36 +19389,36 @@
         <v>1832</v>
       </c>
       <c r="L71" s="0" t="n">
-        <v>4.21160211728819</v>
+        <v>13795.982178909</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E72" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H72" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J72" s="0" t="n">
         <v>242000</v>
@@ -19427,36 +19427,36 @@
         <v>2420</v>
       </c>
       <c r="L72" s="0" t="n">
-        <v>1.64641452196537</v>
+        <v>431968.843071368</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E73" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H73" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J73" s="0" t="n">
         <v>531600</v>
@@ -19465,36 +19465,36 @@
         <v>5316</v>
       </c>
       <c r="L73" s="0" t="n">
-        <v>7.98729000269145</v>
+        <v>242892.898362002</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E74" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H74" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J74" s="0" t="n">
         <v>522000</v>
@@ -19503,36 +19503,36 @@
         <v>5220</v>
       </c>
       <c r="L74" s="0" t="n">
-        <v>1.24906193367026</v>
+        <v>2995.20375218993</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E75" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H75" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J75" s="0" t="n">
         <v>363200</v>
@@ -19541,36 +19541,36 @@
         <v>3632</v>
       </c>
       <c r="L75" s="0" t="n">
-        <v>1.51396365920033</v>
+        <v>64114.5962050691</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E76" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J76" s="0" t="n">
         <v>104800</v>
@@ -19579,36 +19579,36 @@
         <v>1048</v>
       </c>
       <c r="L76" s="0" t="n">
-        <v>6.99810001495259</v>
+        <v>141176.820226277</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E77" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J77" s="0" t="n">
         <v>237600</v>
@@ -19617,36 +19617,36 @@
         <v>2376</v>
       </c>
       <c r="L77" s="0" t="n">
-        <v>2.97259974281527</v>
+        <v>21394.3125156423</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E78" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J78" s="0" t="n">
         <v>486800</v>
@@ -19655,36 +19655,36 @@
         <v>4868</v>
       </c>
       <c r="L78" s="0" t="n">
-        <v>1.29600654325787</v>
+        <v>73303.7536151783</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E79" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J79" s="0" t="n">
         <v>400000</v>
@@ -19693,36 +19693,36 @@
         <v>4000</v>
       </c>
       <c r="L79" s="0" t="n">
-        <v>2.8217063548551</v>
+        <v>86363.6177650088</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E80" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H80" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J80" s="0" t="n">
         <v>334400</v>
@@ -19731,36 +19731,36 @@
         <v>3344</v>
       </c>
       <c r="L80" s="0" t="n">
-        <v>3.80083678339663</v>
+        <v>29490.0158221983</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E81" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J81" s="0" t="n">
         <v>364800</v>
@@ -19769,36 +19769,36 @@
         <v>3648</v>
       </c>
       <c r="L81" s="0" t="n">
-        <v>6.45823700469511</v>
+        <v>90155.1912278629</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E82" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J82" s="0" t="n">
         <v>126800</v>
@@ -19807,36 +19807,36 @@
         <v>1268</v>
       </c>
       <c r="L82" s="0" t="n">
-        <v>1.66988682675917</v>
+        <v>23308.7955927052</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E83" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J83" s="0" t="n">
         <v>468000</v>
@@ -19845,36 +19845,36 @@
         <v>4680</v>
       </c>
       <c r="L83" s="0" t="n">
-        <v>0.898653954962767</v>
+        <v>85295.9203852148</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E84" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H84" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J84" s="0" t="n">
         <v>190800</v>
@@ -19883,36 +19883,36 @@
         <v>1908</v>
       </c>
       <c r="L84" s="0" t="n">
-        <v>3.10002082598163</v>
+        <v>135545.072839427</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E85" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H85" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J85" s="0" t="n">
         <v>430800</v>
@@ -19921,36 +19921,36 @@
         <v>4308</v>
       </c>
       <c r="L85" s="0" t="n">
-        <v>2.55848122252459</v>
+        <v>10697.1562578211</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E86" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H86" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J86" s="0" t="n">
         <v>998400</v>
@@ -19959,36 +19959,36 @@
         <v>9984</v>
       </c>
       <c r="L86" s="0" t="n">
-        <v>1.75203989353748</v>
+        <v>3850.9762528156</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E87" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H87" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J87" s="0" t="n">
         <v>402000</v>
@@ -19997,36 +19997,36 @@
         <v>4020</v>
       </c>
       <c r="L87" s="0" t="n">
-        <v>2.38243893657107</v>
+        <v>10269.2700075083</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E88" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H88" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J88" s="0" t="n">
         <v>352400</v>
@@ -20035,36 +20035,36 @@
         <v>3524</v>
       </c>
       <c r="L88" s="0" t="n">
-        <v>0.905360327760996</v>
+        <v>119848.880856608</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E89" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H89" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J89" s="0" t="n">
         <v>675200</v>
@@ -20073,36 +20073,36 @@
         <v>6752</v>
       </c>
       <c r="L89" s="0" t="n">
-        <v>1.05625371572116</v>
+        <v>119133.844140493</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E90" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J90" s="0" t="n">
         <v>351200</v>
@@ -20111,36 +20111,36 @@
         <v>3512</v>
       </c>
       <c r="L90" s="0" t="n">
-        <v>1.47875520200963</v>
+        <v>208318.346937004</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E91" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H91" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J91" s="0" t="n">
         <v>248800</v>
@@ -20149,36 +20149,36 @@
         <v>2488</v>
       </c>
       <c r="L91" s="0" t="n">
-        <v>7.47089929722778</v>
+        <v>328060.571331138</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E92" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H92" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J92" s="0" t="n">
         <v>207200</v>
@@ -20187,36 +20187,36 @@
         <v>2072</v>
       </c>
       <c r="L92" s="0" t="n">
-        <v>1.50222750680343</v>
+        <v>106128.673304229</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E93" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H93" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J93" s="0" t="n">
         <v>162800</v>
@@ -20225,36 +20225,36 @@
         <v>1628</v>
       </c>
       <c r="L93" s="0" t="n">
-        <v>1.64306133556625</v>
+        <v>418367.333122394</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E94" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H94" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J94" s="0" t="n">
         <v>92000</v>
@@ -20263,36 +20263,36 @@
         <v>920</v>
       </c>
       <c r="L94" s="0" t="n">
-        <v>3.00780820000598</v>
+        <v>366937.729019318</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E95" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H95" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J95" s="0" t="n">
         <v>120400</v>
@@ -20301,36 +20301,36 @@
         <v>1204</v>
       </c>
       <c r="L95" s="0" t="n">
-        <v>2.3572900385777</v>
+        <v>224727.792141048</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E96" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J96" s="0" t="n">
         <v>179200</v>
@@ -20339,36 +20339,36 @@
         <v>1792</v>
       </c>
       <c r="L96" s="0" t="n">
-        <v>4.82020544872753</v>
+        <v>385187.636249236</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E97" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H97" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J97" s="0" t="n">
         <v>111600</v>
@@ -20377,36 +20377,36 @@
         <v>1116</v>
       </c>
       <c r="L97" s="0" t="n">
-        <v>2.00017568707198</v>
+        <v>52787.6780186827</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E98" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H98" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J98" s="0" t="n">
         <v>328800</v>
@@ -20415,36 +20415,36 @@
         <v>3288</v>
       </c>
       <c r="L98" s="0" t="n">
-        <v>1.50222750680343</v>
+        <v>29227.7761514442</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E99" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H99" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J99" s="0" t="n">
         <v>366400</v>
@@ -20453,36 +20453,36 @@
         <v>3664</v>
       </c>
       <c r="L99" s="0" t="n">
-        <v>3.34312683991746</v>
+        <v>69090.8942120071</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E100" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H100" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J100" s="0" t="n">
         <v>364000</v>
@@ -20491,36 +20491,36 @@
         <v>3640</v>
       </c>
       <c r="L100" s="0" t="n">
-        <v>2.72949372887945</v>
+        <v>244197.849115882</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E101" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H101" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J101" s="0" t="n">
         <v>177600</v>
@@ -20529,36 +20529,36 @@
         <v>1776</v>
       </c>
       <c r="L101" s="0" t="n">
-        <v>1.27253423846407</v>
+        <v>203187.644029089</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E102" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H102" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J102" s="0" t="n">
         <v>184800</v>
@@ -20567,36 +20567,36 @@
         <v>1848</v>
       </c>
       <c r="L102" s="0" t="n">
-        <v>3.43030968629444</v>
+        <v>62482.2356241331</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E103" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H103" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J103" s="0" t="n">
         <v>299600</v>
@@ -20605,36 +20605,36 @@
         <v>2996</v>
       </c>
       <c r="L103" s="0" t="n">
-        <v>1.62294221717156</v>
+        <v>103779.600738456</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E104" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H104" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J104" s="0" t="n">
         <v>288800</v>
@@ -20643,36 +20643,36 @@
         <v>2888</v>
       </c>
       <c r="L104" s="0" t="n">
-        <v>1.6095294715751</v>
+        <v>55005.6476833332</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E105" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H105" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J105" s="0" t="n">
         <v>388800</v>
@@ -20681,36 +20681,36 @@
         <v>3888</v>
       </c>
       <c r="L105" s="0" t="n">
-        <v>1.69671231795209</v>
+        <v>8428.28472567201</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E106" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H106" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J106" s="0" t="n">
         <v>345200</v>
@@ -20719,36 +20719,36 @@
         <v>3452</v>
       </c>
       <c r="L106" s="0" t="n">
-        <v>1.24403215407159</v>
+        <v>123543.110037731</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E107" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H107" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J107" s="0" t="n">
         <v>269200</v>
@@ -20757,36 +20757,36 @@
         <v>2692</v>
       </c>
       <c r="L107" s="0" t="n">
-        <v>1.87778438350429</v>
+        <v>89428.0782143771</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E108" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H108" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J108" s="0" t="n">
         <v>174800</v>
@@ -20795,36 +20795,36 @@
         <v>1748</v>
       </c>
       <c r="L108" s="0" t="n">
-        <v>2.015265025868</v>
+        <v>13543.3946203277</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E109" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H109" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J109" s="0" t="n">
         <v>276000</v>
@@ -20833,36 +20833,36 @@
         <v>2760</v>
       </c>
       <c r="L109" s="0" t="n">
-        <v>2.24998807380603</v>
+        <v>127088.666621034</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E110" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H110" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J110" s="0" t="n">
         <v>281200</v>
@@ -20871,36 +20871,36 @@
         <v>2812</v>
       </c>
       <c r="L110" s="0" t="n">
-        <v>2.49980046054008</v>
+        <v>30248.6569576842</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E111" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H111" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J111" s="0" t="n">
         <v>122800</v>
@@ -20909,36 +20909,36 @@
         <v>1228</v>
       </c>
       <c r="L111" s="0" t="n">
-        <v>1.88784394270163</v>
+        <v>80588.4855077605</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E112" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H112" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J112" s="0" t="n">
         <v>174800</v>
@@ -20947,36 +20947,36 @@
         <v>1748</v>
       </c>
       <c r="L112" s="0" t="n">
-        <v>0.984160208140194</v>
+        <v>141411.27481</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E113" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H113" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J113" s="0" t="n">
         <v>300000</v>
@@ -20985,36 +20985,36 @@
         <v>3000</v>
       </c>
       <c r="L113" s="0" t="n">
-        <v>2.18795412542241</v>
+        <v>117484.933166546</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E114" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H114" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J114" s="0" t="n">
         <v>204800</v>
@@ -21023,36 +21023,36 @@
         <v>2048</v>
       </c>
       <c r="L114" s="0" t="n">
-        <v>1.72186121594545</v>
+        <v>5400.85418395517</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E115" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H115" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J115" s="0" t="n">
         <v>145600</v>
@@ -21061,36 +21061,36 @@
         <v>1456</v>
       </c>
       <c r="L115" s="0" t="n">
-        <v>8.65289750291574</v>
+        <v>24667.6550064988</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E116" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H116" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J116" s="0" t="n">
         <v>92400</v>
@@ -21099,36 +21099,36 @@
         <v>924</v>
       </c>
       <c r="L116" s="0" t="n">
-        <v>6.04579507760399</v>
+        <v>123756.370880062</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E117" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H117" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J117" s="0" t="n">
         <v>274400</v>
@@ -21137,36 +21137,36 @@
         <v>2744</v>
       </c>
       <c r="L117" s="0" t="n">
-        <v>1.61455925117378</v>
+        <v>72620.0230814165</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E118" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H118" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J118" s="0" t="n">
         <v>226000</v>
@@ -21175,36 +21175,36 @@
         <v>2260</v>
       </c>
       <c r="L118" s="0" t="n">
-        <v>6.24698626155087</v>
+        <v>14605.2492750476</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E119" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H119" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J119" s="0" t="n">
         <v>352800</v>
@@ -21213,36 +21213,36 @@
         <v>3528</v>
       </c>
       <c r="L119" s="0" t="n">
-        <v>0.947275157749931</v>
+        <v>65667.2455694967</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E120" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H120" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J120" s="0" t="n">
         <v>446400</v>
@@ -21251,36 +21251,36 @@
         <v>4464</v>
       </c>
       <c r="L120" s="0" t="n">
-        <v>0.875181650168963</v>
+        <v>63150.1027861525</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E121" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H121" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J121" s="0" t="n">
         <v>308000</v>
@@ -21289,36 +21289,36 @@
         <v>3080</v>
       </c>
       <c r="L121" s="0" t="n">
-        <v>1.11158129130656</v>
+        <v>84265.2556278214</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E122" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H122" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J122" s="0" t="n">
         <v>69200</v>
@@ -21327,36 +21327,36 @@
         <v>692</v>
       </c>
       <c r="L122" s="0" t="n">
-        <v>7.93531561350518</v>
+        <v>6271.43771351661</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C123" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E123" s="0" t="s">
         <v>186</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H123" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J123" s="0" t="n">
         <v>1887200</v>
@@ -21365,7 +21365,7 @@
         <v>18872</v>
       </c>
       <c r="L123" s="0" t="n">
-        <v>1.1769684260893</v>
+        <v>125983.940699534</v>
       </c>
     </row>
   </sheetData>
@@ -21398,8 +21398,8 @@
   </sheetPr>
   <dimension ref="A1:AMG36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O30" activeCellId="0" sqref="O30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23460,10 +23460,10 @@
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -24487,10 +24487,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="35" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -25514,10 +25514,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="35" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -26541,10 +26541,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="35" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
@@ -27568,10 +27568,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="B7" s="35" t="s">
         <v>464</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>463</v>
       </c>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
@@ -28595,10 +28595,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="35" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
@@ -29622,10 +29622,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="35" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
@@ -30649,10 +30649,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="35" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
@@ -31679,7 +31679,7 @@
         <v>43</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
@@ -32703,10 +32703,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="35" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
@@ -33730,10 +33730,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="35" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
@@ -34757,10 +34757,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="35" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
@@ -36804,30 +36804,30 @@
       <c r="AMF15" s="0"/>
       <c r="AMG15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="96.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="96.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="37" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AMD16" s="0"/>
       <c r="AME16" s="0"/>
@@ -36836,7 +36836,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="37" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B17" s="39" t="s">
         <v>39</v>
@@ -36845,19 +36845,19 @@
         <v>41</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G17" s="39" t="s">
         <v>39</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AMD17" s="0"/>
       <c r="AME17" s="0"/>
@@ -36866,7 +36866,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="37" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B18" s="39" t="s">
         <v>39</v>
@@ -36896,25 +36896,25 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="37" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H19" s="39" t="s">
         <v>186</v>
@@ -36926,7 +36926,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="37" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B20" s="39" t="s">
         <v>186</v>
@@ -36956,25 +36956,25 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="37" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H21" s="39" t="s">
         <v>186</v>
@@ -36986,7 +36986,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="40" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B22" s="39" t="s">
         <v>39</v>
@@ -37016,7 +37016,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="40" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>39</v>
@@ -37046,25 +37046,25 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="37" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>476</v>
+        <v>186</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>476</v>
+        <v>186</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>484</v>
+        <v>186</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>484</v>
+        <v>186</v>
       </c>
       <c r="H24" s="39" t="s">
         <v>186</v>
@@ -37076,25 +37076,25 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="37" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H25" s="39" t="s">
         <v>186</v>
@@ -37106,7 +37106,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="40" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B26" s="39" t="s">
         <v>39</v>
@@ -37136,25 +37136,25 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="37" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B27" s="39" t="s">
         <v>186</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="F27" s="39" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H27" s="39" t="s">
         <v>186</v>
@@ -37166,13 +37166,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="40" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B28" s="39" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D28" s="39" t="s">
         <v>39</v>
@@ -37196,28 +37196,28 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="40" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C29" s="39" t="s">
         <v>497</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F29" s="39" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H29" s="39" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AMD29" s="0"/>
       <c r="AME29" s="0"/>
@@ -37226,7 +37226,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="37" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B30" s="39" t="s">
         <v>186</v>
@@ -37235,19 +37235,19 @@
         <v>186</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AMD30" s="0"/>
       <c r="AME30" s="0"/>
@@ -37256,7 +37256,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="37" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B31" s="39" t="s">
         <v>186</v>
@@ -37268,13 +37268,13 @@
         <v>186</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F31" s="39" t="s">
         <v>186</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H31" s="39" t="s">
         <v>186</v>
@@ -37316,28 +37316,28 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="37" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B33" s="39" t="s">
+        <v>500</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>500</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>500</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>500</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>500</v>
+      </c>
+      <c r="G33" s="39" t="s">
+        <v>500</v>
+      </c>
+      <c r="H33" s="39" t="s">
         <v>501</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>501</v>
-      </c>
-      <c r="D33" s="39" t="s">
-        <v>501</v>
-      </c>
-      <c r="E33" s="39" t="s">
-        <v>501</v>
-      </c>
-      <c r="F33" s="39" t="s">
-        <v>501</v>
-      </c>
-      <c r="G33" s="39" t="s">
-        <v>501</v>
-      </c>
-      <c r="H33" s="39" t="s">
-        <v>498</v>
       </c>
       <c r="AMD33" s="0"/>
       <c r="AME33" s="0"/>
@@ -37346,7 +37346,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="37" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B34" s="39" t="s">
         <v>39</v>
@@ -37376,7 +37376,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="37" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B35" s="39" t="s">
         <v>39</v>

--- a/inputs/reliable_stage1_mgs.xlsx
+++ b/inputs/reliable_stage1_mgs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="504">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -1518,7 +1518,7 @@
     <t xml:space="preserve">number_of_equal_generators</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">capacity_pcc_consumption_kW</t>
@@ -1528,9 +1528,6 @@
   </si>
   <si>
     <t xml:space="preserve">default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">share_hybrid</t>
@@ -1858,12 +1855,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2145,8 +2142,8 @@
   </sheetPr>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2305,7 +2302,7 @@
         <v>44</v>
       </c>
       <c r="C17" s="18" t="n">
-        <v>7</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2590,8 +2587,8 @@
   </sheetPr>
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2999,7 +2996,7 @@
         <v>134</v>
       </c>
       <c r="B37" s="18" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>113</v>
@@ -3310,7 +3307,7 @@
         <v>167</v>
       </c>
       <c r="B65" s="18" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>113</v>
@@ -3321,7 +3318,7 @@
         <v>168</v>
       </c>
       <c r="B66" s="18" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>91</v>
@@ -3801,7 +3798,7 @@
   </sheetPr>
   <dimension ref="A1:AMI123"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A110" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -36804,7 +36801,7 @@
       <c r="AMF15" s="0"/>
       <c r="AMG15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="96.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="96.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="37" t="s">
         <v>459</v>
       </c>
@@ -36854,7 +36851,7 @@
         <v>41</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H17" s="39" t="s">
         <v>41</v>
@@ -37055,16 +37052,16 @@
         <v>485</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>186</v>
+        <v>477</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>186</v>
+        <v>477</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>186</v>
+        <v>485</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>186</v>
+        <v>485</v>
       </c>
       <c r="H24" s="39" t="s">
         <v>186</v>
@@ -37151,10 +37148,10 @@
         <v>494</v>
       </c>
       <c r="F27" s="39" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="H27" s="39" t="s">
         <v>186</v>
@@ -37337,7 +37334,7 @@
         <v>500</v>
       </c>
       <c r="H33" s="39" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="AMD33" s="0"/>
       <c r="AME33" s="0"/>
@@ -37352,19 +37349,19 @@
         <v>39</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H34" s="39" t="s">
         <v>39</v>
@@ -37406,28 +37403,28 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="B36" s="41" t="s">
         <v>503</v>
       </c>
-      <c r="B36" s="41" t="s">
-        <v>504</v>
-      </c>
       <c r="C36" s="41" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G36" s="41" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H36" s="41" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AMD36" s="0"/>
       <c r="AME36" s="0"/>
